--- a/configs/gestion-config/assets/excel-ejemplos/sucursales.xlsx
+++ b/configs/gestion-config/assets/excel-ejemplos/sucursales.xlsx
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Departamento (ID)</t>
-  </si>
-  <si>
-    <t>Rol (ID)</t>
   </si>
   <si>
     <t>Estado</t>
@@ -420,8 +417,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="E1">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -462,9 +459,6 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -472,54 +466,48 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
